--- a/output/fit_clients/fit_round_90.xlsx
+++ b/output/fit_clients/fit_round_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7213404194.545989</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004347309125391676</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.736054098488599</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9310283873859323</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.736054098488599</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4752967912.309739</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005093183401887177</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.33130805500316</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8907727914097252</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.33130805500316</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4633680428.716219</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.00308486553588108</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.570702406051848</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.927362394160153</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.570702406051848</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4701822850.980407</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004527117170912547</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>21</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.425338692006548</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8270471029505513</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.425338692006548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5109390229.302308</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001937179410831822</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.253176306394408</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.861980158860417</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.253176306394408</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8429887178.968336</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001281999324067532</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.443530234935876</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9098034087333899</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.443530234935876</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6165530708.003682</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002390869214730145</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.165914951896985</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9521526065156003</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.165914951896985</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5698144283.533076</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005319690831165957</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.747447895869634</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8904880066920916</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.747447895869634</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3336152528.888268</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003624679892586043</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>19</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.384339049910474</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9256226622015671</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.384339049910474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3338742761.098851</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.00127815518474593</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.249711068798122</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7718065246746556</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.249711068798122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9224101166.748003</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001868977120999499</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.633239034193473</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9618563528693201</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.633239034193473</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4366921649.265675</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004662481295301693</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5679328921939927</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.15166192554077</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.224165934495502</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9286652515546615</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.224165934495502</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6572755524.985628</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002949427705452788</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.531839600218051</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8709540693718257</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.531839600218051</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6839826952.132779</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005394207154846534</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.140002252003338</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9836690393277855</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.140002252003338</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>8282566482.510705</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003665955561937935</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.850330885932102</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9077506647577527</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.850330885932102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6174905344.554012</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002077020397094368</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8830615285180435</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.612463837227117</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.112059324984313</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.612463837227117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6911227975.044478</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001305065812367604</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.56571967462968</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9054583528540222</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.56571967462968</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4501156579.671085</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001951560089257925</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.480654865367011</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.898704151469342</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.480654865367011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5114188508.05943</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009051122344994671</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.630423568948387</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8051712952687584</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.630423568948387</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7611294876.428122</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004960819070280968</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.706802521480809</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8616858583124192</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.706802521480809</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>3974190380.661746</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003874458486419608</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.460764488600418</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7892115655394398</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.460764488600418</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5983680000.823697</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001331454361466578</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9417627962371256</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.102880994153285</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.083506553752113</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.102880994153285</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7753332712.278961</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003524654298798813</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>16</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.72049417645646</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.973818570921186</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.72049417645646</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6676233579.196975</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003074010206164998</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.841666697146056</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9230999925862172</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.841666697146056</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5592550458.864181</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001095599711878539</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>21</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.136223812201322</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8061529981039379</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.136223812201322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8694095500.78561</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003089708218953463</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>17</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.565025308787939</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9246144202821734</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.565025308787939</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5748899142.990333</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005439240366410148</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.720038062315776</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9016097594064911</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.720038062315776</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5224347783.52624</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.00164714747117832</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>16</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.718760029437235</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9624147802942599</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.718760029437235</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8784325596.515852</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002690615744436535</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>21</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.174728581732809</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8580191992333454</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.174728581732809</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5873629488.300702</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003030284560672031</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>20</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.4228567450917898</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.430261140692246</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.7155036611406056</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.430261140692246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4680790109.654058</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009376496795674217</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>20</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.644053922418907</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9019696539188776</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.644053922418907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7913846653.541668</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002698376313436252</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.08357266277952</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8495765588853281</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.08357266277952</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>4958935745.647624</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004550945781148221</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.696891313812651</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.621646205900171</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7760621740502157</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.621646205900171</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4370082283.995692</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002269701488179684</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.607454803750288</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9186634517399275</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.607454803750288</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5653969623.306233</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003583961602439604</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>17</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.3277018819809992</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.537578793128865</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.644146902197877</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.537578793128865</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4944507709.011449</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005206683978090088</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>21</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4422889276658187</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.477932755857229</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.7725512031720073</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.477932755857229</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3221226166.6139</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003902607816160896</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.459152369481867</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8959474261582585</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.459152369481867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5682283128.228251</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.001991959138515823</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
         <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.073898326664659</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8641763601897028</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.073898326664659</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6633069183.111726</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004748958626662865</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>19</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.603745735038509</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9586469078198609</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.603745735038509</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6758577606.84189</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001043346311222048</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>13</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.9094266852981525</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.900388620472269</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.125458816164985</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.900388620472269</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6523124504.83672</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004806928281564547</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.372330296635805</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9602529712080176</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.372330296635805</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5910788943.461691</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003288323708149056</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>17</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.660620008445831</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9059732733623037</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.660620008445831</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6639701681.654164</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002242633244730325</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.375967614744782</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9107501889377695</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.375967614744782</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5908236837.999807</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001572374608388708</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>16</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.896344483006455</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9455819711951911</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.896344483006455</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9090333461.670464</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005039455288191681</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>20</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.382091052086988</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7980639439628128</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.382091052086988</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6598982902.177223</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002070816925459688</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>19</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.330592927119884</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8720243560490268</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.330592927119884</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6056012079.902032</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003115811458490575</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.037515687513978</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9393428845766399</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.037515687513978</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4298461856.286242</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.00473837609032721</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>22</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9023741499869924</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.38792965158105</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.052485266788075</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.38792965158105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5415438777.303215</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003354593764148183</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.330213737543385</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.005472355464194</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.330213737543385</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4986264654.930088</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003548705137469117</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>21</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5863420882515239</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656325</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.372353120117532</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.877499321069853</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.372353120117532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8430863678.765627</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002173551199950058</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>18</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.407174442745978</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8314115863729392</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.407174442745978</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5996128678.817855</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002981208292733176</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>19</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.428486231266283</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.168569387068816</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.428486231266283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5692100824.968886</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005470267906488924</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>21</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.224603168572511</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8258326715693882</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.224603168572511</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6618970975.194509</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004307407118218924</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.348054591986786</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8851212462586925</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.348054591986786</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4117413083.860965</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002499836785302151</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.44914500950151</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.8823220835669474</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.44914500950151</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8592951919.131018</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003214645172588649</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>18</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.432037956555011</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8093909208415726</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.432037956555011</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>7217496547.127088</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002060414167284485</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
         <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.265327076347307</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8198200281611751</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.265327076347307</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7272117647.462016</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003652751110500661</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.375762732099878</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8674083474770424</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.375762732099878</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3748762267.935224</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003002673499900934</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.235042338176608</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8068192003948257</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.235042338176608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5846462729.861423</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003848913305220962</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>26</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5466155898336129</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.761595404389157</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8061576578724748</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.761595404389157</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4273618217.102161</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002969553674416767</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>2.99471058275615</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8498750527347269</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-2.99471058275615</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7641416008.017002</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005905239118005827</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>25</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.089700034235015</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8671630606942298</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.089700034235015</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4516640142.721409</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005153664490327024</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>16</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.8747388457650187</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.572991676667715</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.054082523715922</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.572991676667715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4716628462.317457</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004342552180880557</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>24</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.618168860420462</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.955840501864035</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.618168860420462</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6404441510.541852</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003468626084790585</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>18</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9389707410566071</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.510844392173639</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.11456573181219</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.510844392173639</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7067940024.631297</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00441837802064604</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.781313048326603</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8652550306690507</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.781313048326603</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8554889027.188802</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002072836246078706</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>21</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6416297692781392</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.171339392638667</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7080301959243235</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.171339392638667</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4665494295.885455</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001083200817387893</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.062365388240642</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9708678215023715</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.062365388240642</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6271986575.414037</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003549639395826934</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>14</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.598021267329311</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8796752484192545</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.598021267329311</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3537603641.2401</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.00388384986742531</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.646339488955377</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.787526817181636</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.646339488955377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7343091002.657351</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001779349447043913</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.537881382653019</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.037167211020029</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.537881382653019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6167917414.222762</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001239034653105477</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.674613842320602</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.408248290463863</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.674613842320602</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6222893229.775648</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004007671471248302</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>19</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.8074519305588009</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.349589800115621</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9789822931080334</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.349589800115621</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5603713329.870539</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003787713570739917</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>18</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.557655852079763</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8563870131967006</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.557655852079763</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7411058827.066987</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002934901035757229</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.2749857252824472</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.446194207801724</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.4744492766152172</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.446194207801724</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7624684017.475622</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004383357383756583</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>12</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.1601664341101913</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.029101265674801</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.3711258397592047</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.029101265674801</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5638338711.121602</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003243365599614027</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>18</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9080091879453867</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.511208375250293</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.114894120073505</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.511208375250293</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7397326770.334995</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.0020475911894427</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>15</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.616389271118269</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9333338744594895</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.616389271118269</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5503818452.270045</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.00225372069821881</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.601805975284915</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9459251358235979</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.601805975284915</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7463710957.913101</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004964268343724993</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.183502446970937</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9709408577811783</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.183502446970937</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7966848157.341022</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.00564120950782795</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.436077564518744</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8748564676398876</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.436077564518744</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10727361213.04315</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.00288131536025521</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>23</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.140371211872842</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8159652605421451</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.140371211872842</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7212035926.199413</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004296138591000727</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>20</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.330222287062592</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9379714578903441</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.330222287062592</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3686693649.895685</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002671851272883266</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.19641107151311</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8884366748963322</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.19641107151311</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7571601259.46443</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002326633802878315</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>20</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.620595673690583</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9643511717748894</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.620595673690583</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3807884525.220965</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.0015116413756908</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>25</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.112569571256123</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9468357971106602</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.112569571256123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>5877250965.790013</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003971053090536463</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.546927409521007</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8399036920430361</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.546927409521007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7142572159.372047</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004397766804792431</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.886854285105133</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9467176959352451</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.886854285105133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6435146223.030846</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003720669306585674</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.542979857749963</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9327580369204995</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.542979857749963</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>4955885184.14803</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004507122626063111</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.746675890467601</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8040120198960917</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.746675890467601</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5053477699.037442</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.00337593050928403</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>14</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.854933558642383</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.036785851948929</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.854933558642383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5975708014.840109</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001231029093650545</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>19</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.430715436504513</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9058949991951152</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.430715436504513</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7111004632.824206</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001272018859073668</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>15</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.745983660834427</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.9897003641793601</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.745983660834427</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5552171847.451944</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002662074599731632</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.715334665225903</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9121625434307244</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.715334665225903</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6492608319.008666</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002044544681677197</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>24</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.218418978076255</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8962304761014476</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.218418978076255</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5751519823.701041</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003731554459440413</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.754659434099125</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8818737655335488</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.754659434099125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>9173219653.194435</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004103584511639655</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.357665883090801</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8464085895940238</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.357665883090801</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2979262325.207991</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00411723704086832</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>22</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.304441681144613</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8724777351636651</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.304441681144613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4636528170.457595</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003498813756205236</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.625042011234104</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8199930021252434</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.625042011234104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6512909348.856658</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001769773290984979</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>20</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6416603616433646</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.641656541407856</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8679458419547513</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.641656541407856</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_90.xlsx
+++ b/output/fit_clients/fit_round_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7213404194.545989</v>
+        <v>2483659708.489034</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004347309125391676</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>22</v>
+        <v>0.07530462319003499</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02924805938032053</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1241829914.847059</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2578461113.97581</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1154166354502571</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04876643367379932</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4752967912.309739</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005093183401887177</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
+      <c r="J3" t="n">
+        <v>1289230686.547747</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4633680428.716219</v>
+        <v>3621454602.322688</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00308486553588108</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19</v>
+        <v>0.136523827253628</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02347098438190591</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1810727288.448503</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4701822850.980407</v>
+        <v>3630988433.411971</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004527117170912547</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08499674890452788</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04524872981260349</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1815494244.714104</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5109390229.302308</v>
+        <v>2285417315.856474</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001937179410831822</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20</v>
+        <v>0.1487744786531052</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.054906801929574</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1142708656.563107</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>494</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2848673725.885133</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1002936595204598</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04794895562914829</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>539</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8429887178.968336</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.001281999324067532</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
+      <c r="I7" t="n">
+        <v>26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1424336842.333086</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6165530708.003682</v>
+        <v>2928396026.184049</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002390869214730145</v>
-      </c>
-      <c r="G8" t="b">
+        <v>0.1835873287578348</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03048870023312318</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>23</v>
+      <c r="I8" t="n">
+        <v>29</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1464198063.216447</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5698144283.533076</v>
+        <v>2087896699.747588</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005319690831165957</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>28</v>
+        <v>0.1338230395635742</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02464190097820294</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1043948364.210217</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3336152528.888268</v>
+        <v>3991478533.973059</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003624679892586043</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1865943984243093</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04082582836288452</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1995739288.132526</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3338742761.098851</v>
+        <v>3189438762.960741</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00127815518474593</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.127940703980783</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04198538055555828</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1594719337.526508</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9224101166.748003</v>
+        <v>2480827861.450258</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001868977120999499</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>26</v>
+        <v>0.1995108025285721</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04035793589460366</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>31</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1240413901.136559</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4366921649.265675</v>
+        <v>5006426279.58886</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004662481295301693</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>19</v>
+        <v>0.06520066870004576</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02654585566030053</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2503213143.525077</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6572755524.985628</v>
+        <v>2601139626.706424</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002949427705452788</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>21</v>
+        <v>0.115506039823808</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02826596995299165</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1300569876.605893</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6839826952.132779</v>
+        <v>1497870822.374655</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005394207154846534</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>27</v>
+        <v>0.0946997153488412</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03635913064206339</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>748935496.1254923</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>8282566482.510705</v>
+        <v>2748950262.620801</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003665955561937935</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>29</v>
+        <v>0.09676135295928076</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04959240065174682</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1374475139.813726</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6174905344.554012</v>
+        <v>3949700898.807384</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002077020397094368</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>19</v>
+        <v>0.1328761784593579</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04540376575228237</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1974850486.406544</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6911227975.044478</v>
+        <v>2589732101.567026</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001305065812367604</v>
-      </c>
-      <c r="G18" t="b">
+        <v>0.1265433766143856</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02372063298930247</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>25</v>
+      <c r="I18" t="n">
+        <v>29</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1294866110.656033</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4501156579.671085</v>
+        <v>1079557493.796931</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001951560089257925</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1797971105198663</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02381572657255594</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>539778795.4192994</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5114188508.05943</v>
+        <v>2416473321.465029</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009051122344994671</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1240909098163901</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02159012983485843</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1208236642.648233</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7611294876.428122</v>
+        <v>1663515448.0593</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004960819070280968</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>17</v>
+        <v>0.06484174805121036</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04196429221587703</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>831757792.0718426</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3974190380.661746</v>
+        <v>2641237035.288391</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003874458486419608</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
+        <v>0.09153715252381876</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04338874569474726</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1320618600.588565</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5983680000.823697</v>
+        <v>1292431711.815512</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001331454361466578</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>16</v>
+        <v>0.1274110181211674</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0337403614702898</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>646215876.739467</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>476</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4017829605.0321</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.140183799863934</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0281596768872899</v>
+      </c>
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" t="n">
-        <v>513</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7753332712.278961</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.003524654298798813</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>23</v>
+      <c r="I24" t="n">
+        <v>26</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2008914769.230119</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6676233579.196975</v>
+        <v>1034402240.095412</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003074010206164998</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>20</v>
+        <v>0.1192159658735444</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03056897672625277</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>517201176.0400432</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5592550458.864181</v>
+        <v>1077841624.963697</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001095599711878539</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1060204860935222</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03439175629411816</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>538920803.5211967</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8694095500.78561</v>
+        <v>4532664366.349145</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003089708218953463</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>24</v>
+        <v>0.0974240392959759</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01924590698983315</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2266332166.779953</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5748899142.990333</v>
+        <v>2420519206.431346</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005439240366410148</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>23</v>
+        <v>0.1102892880625936</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04789591717944996</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1210259564.088329</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5224347783.52624</v>
+        <v>5104385629.097838</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00164714747117832</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>23</v>
+        <v>0.09803658320138105</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04450478546444238</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>41</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2552192754.829196</v>
       </c>
     </row>
     <row r="30">
@@ -1267,19 +1445,25 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8784325596.515852</v>
+        <v>1787312064.558098</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002690615744436535</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>28</v>
+        <v>0.1222696270093909</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03030741769322351</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>893656045.4740844</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5873629488.300702</v>
+        <v>1456843648.638503</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003030284560672031</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>18</v>
+        <v>0.06788682795328271</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03324445160866189</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>728421715.2498137</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4680790109.654058</v>
+        <v>1476337035.661852</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009376496795674217</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1048015550109013</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03751419538578466</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>738168581.21034</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7913846653.541668</v>
+        <v>2454246311.624449</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002698376313436252</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>20</v>
+        <v>0.1480878171109672</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04847411845923182</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1227123197.843779</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>4958935745.647624</v>
+        <v>1088767984.945926</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004550945781148221</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>28</v>
+        <v>0.09437364255953049</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02192473881897399</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>544384015.7316267</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4370082283.995692</v>
+        <v>1290494525.585275</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002269701488179684</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>23</v>
+        <v>0.1054048635612953</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02827870203919446</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>645247217.5898376</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5653969623.306233</v>
+        <v>2885499566.605735</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003583961602439604</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>25</v>
+        <v>0.141179981696913</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02429594159708567</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>22</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1442749774.301005</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4944507709.011449</v>
+        <v>2399863656.390639</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005206683978090088</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.09230117994256697</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04204822759491652</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>23</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1199931910.423185</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3221226166.6139</v>
+        <v>1618377438.379427</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003902607816160896</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08210766645109814</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02988467597465542</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>809188751.6466229</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5682283128.228251</v>
+        <v>1600865252.784616</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001991959138515823</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1321152813309984</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01991686830082904</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>800432681.4457948</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6633069183.111726</v>
+        <v>1181754541.283714</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004748958626662865</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1075012721388221</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05505009033552517</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>590877316.4550875</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6758577606.84189</v>
+        <v>2587090946.636489</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001043346311222048</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>26</v>
+        <v>0.1481111885524756</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04001722506161067</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1293545489.968487</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6523124504.83672</v>
+        <v>3810607679.776907</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004806928281564547</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.1007130564987574</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04497762411136612</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1905303856.045819</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5910788943.461691</v>
+        <v>2340200109.042872</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003288323708149056</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>21</v>
+        <v>0.1423977313370784</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02015969070095792</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1170100119.154999</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6639701681.654164</v>
+        <v>1487893373.774526</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002242633244730325</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>24</v>
+        <v>0.08880548899959717</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02965588652854453</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>743946690.9613079</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5908236837.999807</v>
+        <v>2189921763.951859</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001572374608388708</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.1569380321956158</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03827669593824696</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1094960891.891815</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9090333461.670464</v>
+        <v>4343386943.816766</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005039455288191681</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>14</v>
+        <v>0.1465082660123797</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04522262726710704</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>32</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2171693461.01981</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6598982902.177223</v>
+        <v>4126281309.737901</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002070816925459688</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1440390841412696</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04536818080466508</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2063140661.073344</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6056012079.902032</v>
+        <v>3390675894.495941</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003115811458490575</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>16</v>
+        <v>0.07616824548076978</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02716507542560197</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1695338016.94297</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4298461856.286242</v>
+        <v>1672852391.172788</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00473837609032721</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1481654614472298</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0370023922153152</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>836426200.6548212</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5415438777.303215</v>
+        <v>3160580334.622161</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003354593764148183</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>25</v>
+        <v>0.1550963312510086</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05263951517818517</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1580290215.660638</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4986264654.930088</v>
+        <v>1242868500.204414</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003548705137469117</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1199967240471314</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04981165241656636</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>621434294.6438317</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8430863678.765627</v>
+        <v>3375102514.575933</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002173551199950058</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>22</v>
+        <v>0.1022334201652719</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04071446486386853</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>37</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1687551350.468753</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5996128678.817855</v>
+        <v>2620384592.752444</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002981208292733176</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>17</v>
+        <v>0.1930357849172692</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02820316033923777</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1310192354.975015</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5692100824.968886</v>
+        <v>3732952070.710236</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005470267906488924</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>22</v>
+        <v>0.1348955976738143</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03469316610397095</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>30</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1866476078.393981</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6618970975.194509</v>
+        <v>4338640460.331045</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004307407118218924</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>29</v>
+        <v>0.1438348580050257</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02244875686832163</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>24</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2169320219.932895</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4117413083.860965</v>
+        <v>1584840912.062413</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002499836785302151</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.1304707404489342</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03795423294202749</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>792420485.6579549</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>496</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2910961858.824099</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1482966837148912</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02520776051394879</v>
+      </c>
+      <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="D57" t="n">
-        <v>475</v>
-      </c>
-      <c r="E57" t="n">
-        <v>8592951919.131018</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.003214645172588649</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+      <c r="I57" t="n">
+        <v>28</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1455480926.281528</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>7217496547.127088</v>
+        <v>1453785273.454464</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002060414167284485</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>19</v>
+        <v>0.1383487625577419</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03442041528079834</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>726892671.9916631</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7272117647.462016</v>
+        <v>3938619209.364972</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003652751110500661</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.1267501737936271</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04691138315289913</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1969309583.520294</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3748762267.935224</v>
+        <v>3299065689.511941</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003002673499900934</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1418568644032124</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02553225158879594</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1649532946.39019</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5846462729.861423</v>
+        <v>2717807872.2991</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003848913305220962</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20</v>
+        <v>0.1360595718380194</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02335332186356096</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>31</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1358903943.149868</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4273618217.102161</v>
+        <v>2018346308.383922</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002969553674416767</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>15</v>
+        <v>0.1634367293405964</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03624623640621685</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1009173214.906544</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7641416008.017002</v>
+        <v>5358326080.026443</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005905239118005827</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
+        <v>0.07649731435974703</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04180732946593243</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2679163041.701659</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4516640142.721409</v>
+        <v>3611753870.206817</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005153664490327024</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1868587176472069</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03512963894136543</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1805876943.581713</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4716628462.317457</v>
+        <v>4907092264.091235</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004342552180880557</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>23</v>
+        <v>0.1174316912422287</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.03010563074524944</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>32</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2453546096.407586</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6404441510.541852</v>
+        <v>5216526576.866184</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003468626084790585</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>19</v>
+        <v>0.1293522254650478</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03365979746086173</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>26</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2608263327.100249</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7067940024.631297</v>
+        <v>2280142681.784856</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00441837802064604</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>18</v>
+        <v>0.06567640083113084</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04852425304510054</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>29</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1140071420.035907</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8554889027.188802</v>
+        <v>5189917439.414026</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002072836246078706</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>19</v>
+        <v>0.1532696852356064</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.05169748616122034</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>28</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2594958787.525099</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4665494295.885455</v>
+        <v>2076923841.344928</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001083200817387893</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.1177775003926201</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03907842430693932</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1038461935.479231</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6271986575.414037</v>
+        <v>3019150786.524202</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003549639395826934</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.1012574711381159</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03304817172923201</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1509575371.390947</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3537603641.2401</v>
+        <v>5505194131.749223</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00388384986742531</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1653926416943597</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02463788623014205</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>33</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2752597209.202616</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7343091002.657351</v>
+        <v>2119253453.179064</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001779349447043913</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>19</v>
+        <v>0.08337673882149134</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03220125046601589</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1059626653.590611</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6167917414.222762</v>
+        <v>3567720183.463454</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001239034653105477</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.09032724771617107</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0495792342464182</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>35</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1783860035.667922</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6222893229.775648</v>
+        <v>3973312756.916617</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004007671471248302</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>19</v>
+        <v>0.1793785767029971</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03012367363737024</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>31</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1986656359.614705</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5603713329.870539</v>
+        <v>1787890630.283916</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003787713570739917</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>17</v>
+        <v>0.1595527511554316</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0329504672951999</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>893945299.1014723</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7411058827.066987</v>
+        <v>4293948496.729214</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002934901035757229</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>19</v>
+        <v>0.111343615443114</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02770418548064077</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>20</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2146974245.307273</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7624684017.475622</v>
+        <v>1941239047.170182</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004383357383756583</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1311356098788888</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.03061184050942145</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>970619576.3368579</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5638338711.121602</v>
+        <v>4131800671.794443</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003243365599614027</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.1108384853968548</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04714045170235862</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>31</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2065900292.119838</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7397326770.334995</v>
+        <v>1167424687.993814</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0020475911894427</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>20</v>
+        <v>0.16049986267186</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03090924934570598</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>583712319.9484547</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5503818452.270045</v>
+        <v>5100809680.752861</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00225372069821881</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>29</v>
+        <v>0.103551709213992</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03711823541721179</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>19</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2550404894.51347</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7463710957.913101</v>
+        <v>3366300697.491829</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004964268343724993</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.08868370320791989</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03094292091285664</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1683150288.348519</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7966848157.341022</v>
+        <v>4524463749.450301</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00564120950782795</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.1653290758537276</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02416744174293414</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2262231885.131121</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10727361213.04315</v>
+        <v>2368511034.052127</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00288131536025521</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>25</v>
+        <v>0.09756240654765276</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03966711249025723</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1184255548.150272</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7212035926.199413</v>
+        <v>1957384302.381288</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004296138591000727</v>
-      </c>
-      <c r="G84" t="b">
+        <v>0.09584007153485528</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03435322614939439</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="H84" t="n">
-        <v>24</v>
+      <c r="J84" t="n">
+        <v>978692162.3482863</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3686693649.895685</v>
+        <v>2431939279.333665</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002671851272883266</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1127737064010108</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04094610284248931</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>34</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1215969637.033715</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7571601259.46443</v>
+        <v>1876585120.132869</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002326633802878315</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>26</v>
+        <v>0.1691061268376017</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02248533575739827</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>938292570.4664359</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3807884525.220965</v>
+        <v>1344524541.238732</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0015116413756908</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.167444866751199</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03180377880910699</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>672262363.1759655</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>5877250965.790013</v>
+        <v>3068594048.655973</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003971053090536463</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.115428929959647</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02659174281912606</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>35</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1534297061.466744</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7142572159.372047</v>
+        <v>2498363942.512502</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004397766804792431</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>20</v>
+        <v>0.1292283526374018</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03277499056480668</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>30</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1249182046.062348</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6435146223.030846</v>
+        <v>1530807102.763319</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003720669306585674</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>16</v>
+        <v>0.1196745395511714</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05041000574902539</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>765403535.6558502</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>4955885184.14803</v>
+        <v>1703556549.586711</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004507122626063111</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>26</v>
+        <v>0.1796334936491417</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03912127878095022</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>851778286.4931053</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5053477699.037442</v>
+        <v>2307764081.620188</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00337593050928403</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.0936590392362692</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03538873711838585</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1153882010.162287</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5975708014.840109</v>
+        <v>3370693487.397472</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001231029093650545</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>30</v>
+        <v>0.1094837380499871</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04855587609195328</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1685346784.905977</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7111004632.824206</v>
+        <v>1761099274.768786</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001272018859073668</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>29</v>
+        <v>0.1206715582698501</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03084173206650902</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>880549604.6114976</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5552171847.451944</v>
+        <v>2564283665.296613</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002662074599731632</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>23</v>
+        <v>0.1352890238273823</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04200997308082841</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>21</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1282141863.994417</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6492608319.008666</v>
+        <v>1830330976.861247</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002044544681677197</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>24</v>
+        <v>0.126130602919986</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04620638129285302</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>915165493.4458122</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5751519823.701041</v>
+        <v>3329318168.552856</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003731554459440413</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>23</v>
+        <v>0.1222412666072069</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02160064236049411</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>29</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1664659086.654639</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>9173219653.194435</v>
+        <v>2714943953.675553</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004103584511639655</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>33</v>
+        <v>0.1095818989618328</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02145414562632883</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>24</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1357471942.126502</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2979262325.207991</v>
+        <v>2595220570.069153</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00411723704086832</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1013465189161958</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02784740082353973</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>29</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1297610241.558446</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4636528170.457595</v>
+        <v>3971666603.907286</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003498813756205236</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1272923456344628</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01797422653486886</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>27</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1985833370.297579</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>584</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2601452533.378263</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1426017751152208</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04188455229249404</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="D101" t="n">
-        <v>573</v>
-      </c>
-      <c r="E101" t="n">
-        <v>6512909348.856658</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.001769773290984979</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>29</v>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1300726303.00043</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_90.xlsx
+++ b/output/fit_clients/fit_round_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2483659708.489034</v>
+        <v>2405089001.393015</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07530462319003499</v>
+        <v>0.1081263410756769</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02924805938032053</v>
+        <v>0.03476791520034528</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1241829914.847059</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2578461113.97581</v>
+        <v>2180017318.945772</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1154166354502571</v>
+        <v>0.1691645698472742</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04876643367379932</v>
+        <v>0.0497416631462034</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1289230686.547747</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3621454602.322688</v>
+        <v>4938379557.165828</v>
       </c>
       <c r="F4" t="n">
-        <v>0.136523827253628</v>
+        <v>0.1545625681045792</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02347098438190591</v>
+        <v>0.02987729159305327</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1810727288.448503</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3630988433.411971</v>
+        <v>3980771770.051132</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08499674890452788</v>
+        <v>0.07226293140348077</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04524872981260349</v>
+        <v>0.03163554686343006</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1815494244.714104</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2285417315.856474</v>
+        <v>2700836912.87104</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1487744786531052</v>
+        <v>0.1331376511814345</v>
       </c>
       <c r="G6" t="n">
-        <v>0.054906801929574</v>
+        <v>0.04192907629469241</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1142708656.563107</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2848673725.885133</v>
+        <v>2582770756.192806</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1002936595204598</v>
+        <v>0.07339368864758748</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04794895562914829</v>
+        <v>0.04913775931389395</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>26</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1424336842.333086</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2928396026.184049</v>
+        <v>2831011367.112167</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1835873287578348</v>
+        <v>0.200108385228754</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03048870023312318</v>
+        <v>0.02479218154810925</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>29</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1464198063.216447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2087896699.747588</v>
+        <v>1671461963.748471</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1338230395635742</v>
+        <v>0.1333864048959953</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02464190097820294</v>
+        <v>0.02726507241121883</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1043948364.210217</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3991478533.973059</v>
+        <v>4324890062.588631</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1865943984243093</v>
+        <v>0.1826270052638923</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04082582836288452</v>
+        <v>0.04438131790760765</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1995739288.132526</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3189438762.960741</v>
+        <v>3329542898.873243</v>
       </c>
       <c r="F11" t="n">
-        <v>0.127940703980783</v>
+        <v>0.1729118746057895</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04198538055555828</v>
+        <v>0.04174181247373603</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>37</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1594719337.526508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2480827861.450258</v>
+        <v>2430476264.401743</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1995108025285721</v>
+        <v>0.1976069013429471</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04035793589460366</v>
+        <v>0.03645170427265406</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>31</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1240413901.136559</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5006426279.58886</v>
+        <v>5321575042.069769</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06520066870004576</v>
+        <v>0.06252681614218605</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02654585566030053</v>
+        <v>0.02214374605767223</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>30</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2503213143.525077</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2601139626.706424</v>
+        <v>3379369224.777493</v>
       </c>
       <c r="F14" t="n">
-        <v>0.115506039823808</v>
+        <v>0.1303989692281251</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02826596995299165</v>
+        <v>0.03303461639060536</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>29</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1300569876.605893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1497870822.374655</v>
+        <v>1604904883.590876</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0946997153488412</v>
+        <v>0.08589538634839904</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03635913064206339</v>
+        <v>0.04918875287770792</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>748935496.1254923</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2748950262.620801</v>
+        <v>2694602588.984204</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09676135295928076</v>
+        <v>0.09526233145388824</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04959240065174682</v>
+        <v>0.03402306324874858</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1374475139.813726</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3949700898.807384</v>
+        <v>4151296630.629686</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1328761784593579</v>
+        <v>0.1216351368309628</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04540376575228237</v>
+        <v>0.04639206430566915</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>26</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1974850486.406544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2589732101.567026</v>
+        <v>2699665953.123634</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1265433766143856</v>
+        <v>0.1432384816472956</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02372063298930247</v>
+        <v>0.03190755147278596</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>29</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1294866110.656033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1079557493.796931</v>
+        <v>1273443062.810916</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1797971105198663</v>
+        <v>0.1797090327070111</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02381572657255594</v>
+        <v>0.01735912320237827</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>539778795.4192994</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2416473321.465029</v>
+        <v>1701976292.090035</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1240909098163901</v>
+        <v>0.1507448990852961</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02159012983485843</v>
+        <v>0.02445913885876181</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1208236642.648233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1663515448.0593</v>
+        <v>2384453209.349958</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06484174805121036</v>
+        <v>0.08663229493899666</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04196429221587703</v>
+        <v>0.0446829144092516</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>831757792.0718426</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2641237035.288391</v>
+        <v>2848199523.137542</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09153715252381876</v>
+        <v>0.09478558326141999</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04338874569474726</v>
+        <v>0.05027084504313428</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1320618600.588565</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1292431711.815512</v>
+        <v>1329855789.365506</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1274110181211674</v>
+        <v>0.1167813581254732</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0337403614702898</v>
+        <v>0.04034119804180962</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>646215876.739467</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4017829605.0321</v>
+        <v>3700804621.598714</v>
       </c>
       <c r="F24" t="n">
-        <v>0.140183799863934</v>
+        <v>0.1226968310912091</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0281596768872899</v>
+        <v>0.02560393897764193</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>26</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2008914769.230119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1034402240.095412</v>
+        <v>1472802862.836661</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1192159658735444</v>
+        <v>0.07597949664092293</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03056897672625277</v>
+        <v>0.03016105131021506</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>517201176.0400432</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1077841624.963697</v>
+        <v>1009274615.06712</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1060204860935222</v>
+        <v>0.105405810395512</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03439175629411816</v>
+        <v>0.03356829506242773</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>538920803.5211967</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4532664366.349145</v>
+        <v>4713588904.933535</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0974240392959759</v>
+        <v>0.1178313698499572</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01924590698983315</v>
+        <v>0.01708884970350275</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2266332166.779953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2420519206.431346</v>
+        <v>3393876664.915307</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1102892880625936</v>
+        <v>0.09771530840746093</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04789591717944996</v>
+        <v>0.04714215106794264</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>29</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1210259564.088329</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5104385629.097838</v>
+        <v>5469155941.268559</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09803658320138105</v>
+        <v>0.1500686469022519</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04450478546444238</v>
+        <v>0.0408779886390215</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>41</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2552192754.829196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1787312064.558098</v>
+        <v>1760918085.108217</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1222696270093909</v>
+        <v>0.1276674929854726</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03030741769322351</v>
+        <v>0.03468348766831835</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>893656045.4740844</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1456843648.638503</v>
+        <v>1274889297.029819</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06788682795328271</v>
+        <v>0.06757271776527306</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03324445160866189</v>
+        <v>0.05112107457739356</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>728421715.2498137</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1476337035.661852</v>
+        <v>1611751482.377677</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1048015550109013</v>
+        <v>0.1071156558695141</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03751419538578466</v>
+        <v>0.02464696691541373</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>738168581.21034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2454246311.624449</v>
+        <v>2597230614.415808</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1480878171109672</v>
+        <v>0.1465163940588093</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04847411845923182</v>
+        <v>0.04192587973466168</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>25</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1227123197.843779</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1088767984.945926</v>
+        <v>1013309582.063095</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09437364255953049</v>
+        <v>0.09172167083442463</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02192473881897399</v>
+        <v>0.02561292148086533</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>544384015.7316267</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1290494525.585275</v>
+        <v>1178433519.73043</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1054048635612953</v>
+        <v>0.07885243749572048</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02827870203919446</v>
+        <v>0.03010278848687559</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>645247217.5898376</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2885499566.605735</v>
+        <v>2032687769.019584</v>
       </c>
       <c r="F36" t="n">
-        <v>0.141179981696913</v>
+        <v>0.1623727068633205</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02429594159708567</v>
+        <v>0.02180175166260772</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>22</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1442749774.301005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2399863656.390639</v>
+        <v>2497032939.857641</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09230117994256697</v>
+        <v>0.08872955825134589</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04204822759491652</v>
+        <v>0.02971438230844345</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1199931910.423185</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1618377438.379427</v>
+        <v>1642501855.440973</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08210766645109814</v>
+        <v>0.09487259840957975</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02988467597465542</v>
+        <v>0.03323398756806628</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>809188751.6466229</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1600865252.784616</v>
+        <v>1832494682.451109</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1321152813309984</v>
+        <v>0.1751346892016637</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01991686830082904</v>
+        <v>0.0294454188893517</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>800432681.4457948</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1181754541.283714</v>
+        <v>1394077959.281317</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1075012721388221</v>
+        <v>0.1435598400363867</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05505009033552517</v>
+        <v>0.05980958230130243</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>590877316.4550875</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2587090946.636489</v>
+        <v>2153744415.891269</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1481111885524756</v>
+        <v>0.1133273866054911</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04001722506161067</v>
+        <v>0.04017091132222319</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1293545489.968487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3810607679.776907</v>
+        <v>3493945396.338612</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1007130564987574</v>
+        <v>0.1166309743118649</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04497762411136612</v>
+        <v>0.04453126714512966</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>32</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1905303856.045819</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2340200109.042872</v>
+        <v>2041368279.8916</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1423977313370784</v>
+        <v>0.1777960134463024</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02015969070095792</v>
+        <v>0.02203172255883189</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1170100119.154999</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1487893373.774526</v>
+        <v>1860637345.237134</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08880548899959717</v>
+        <v>0.08642968777891995</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02965588652854453</v>
+        <v>0.03087600318572433</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>743946690.9613079</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2189921763.951859</v>
+        <v>2202981994.378026</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1569380321956158</v>
+        <v>0.1410969608449876</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03827669593824696</v>
+        <v>0.05041213076306379</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1094960891.891815</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4343386943.816766</v>
+        <v>4987780579.472014</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1465082660123797</v>
+        <v>0.1507054534496896</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04522262726710704</v>
+        <v>0.04603380010490445</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>32</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2171693461.01981</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4126281309.737901</v>
+        <v>4442557427.521653</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1440390841412696</v>
+        <v>0.1371981812026813</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04536818080466508</v>
+        <v>0.05048276259706458</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>24</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2063140661.073344</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3390675894.495941</v>
+        <v>3876721139.215898</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07616824548076978</v>
+        <v>0.1100402485224332</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02716507542560197</v>
+        <v>0.03296566140532094</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>31</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1695338016.94297</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1672852391.172788</v>
+        <v>1707271846.543573</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1481654614472298</v>
+        <v>0.1649051490383998</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0370023922153152</v>
+        <v>0.03882246936309156</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>836426200.6548212</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3160580334.622161</v>
+        <v>3096495036.355802</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1550963312510086</v>
+        <v>0.1340563829713175</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05263951517818517</v>
+        <v>0.04578301653864289</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>31</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1580290215.660638</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1242868500.204414</v>
+        <v>1052459215.987047</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1199967240471314</v>
+        <v>0.1383058820096406</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04981165241656636</v>
+        <v>0.05125737250013022</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>621434294.6438317</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3375102514.575933</v>
+        <v>3250497580.249103</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1022334201652719</v>
+        <v>0.119124583419584</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04071446486386853</v>
+        <v>0.05784541453445702</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>37</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1687551350.468753</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2620384592.752444</v>
+        <v>2332489369.625414</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1930357849172692</v>
+        <v>0.1640288878256233</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02820316033923777</v>
+        <v>0.02219039045547458</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>26</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1310192354.975015</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3732952070.710236</v>
+        <v>4646922437.52704</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1348955976738143</v>
+        <v>0.1073962381058077</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03469316610397095</v>
+        <v>0.0525634736714088</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>30</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1866476078.393981</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4338640460.331045</v>
+        <v>4980046232.74911</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1438348580050257</v>
+        <v>0.1535858725898525</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02244875686832163</v>
+        <v>0.02450396855127298</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>24</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2169320219.932895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1584840912.062413</v>
+        <v>1549847394.619499</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1304707404489342</v>
+        <v>0.1621193833405791</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03795423294202749</v>
+        <v>0.04530338908147336</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>792420485.6579549</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2910961858.824099</v>
+        <v>3777485157.063649</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1482966837148912</v>
+        <v>0.1333160574893484</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02520776051394879</v>
+        <v>0.02615020309838788</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>28</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1455480926.281528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1453785273.454464</v>
+        <v>1899328111.634802</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1383487625577419</v>
+        <v>0.2004513154546891</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03442041528079834</v>
+        <v>0.03280776690322793</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>726892671.9916631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3938619209.364972</v>
+        <v>4032193177.331379</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1267501737936271</v>
+        <v>0.1002783949304648</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04691138315289913</v>
+        <v>0.0304694631049794</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1969309583.520294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3299065689.511941</v>
+        <v>3127106134.379265</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1418568644032124</v>
+        <v>0.1621146834827303</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02553225158879594</v>
+        <v>0.02803090781318378</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>29</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1649532946.39019</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2717807872.2991</v>
+        <v>2256513373.212383</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1360595718380194</v>
+        <v>0.1378967991893552</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02335332186356096</v>
+        <v>0.02248864924576818</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>31</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1358903943.149868</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2018346308.383922</v>
+        <v>1895830098.503361</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1634367293405964</v>
+        <v>0.1528458554390058</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03624623640621685</v>
+        <v>0.04000283782732582</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1009173214.906544</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5358326080.026443</v>
+        <v>5590059949.650517</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07649731435974703</v>
+        <v>0.06480300491356165</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04180732946593243</v>
+        <v>0.03679319755392162</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>26</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2679163041.701659</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3611753870.206817</v>
+        <v>4466239193.870315</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1868587176472069</v>
+        <v>0.1494994757138847</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03512963894136543</v>
+        <v>0.02924086230297461</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>28</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1805876943.581713</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4907092264.091235</v>
+        <v>5523960474.046583</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1174316912422287</v>
+        <v>0.1560940445855627</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03010563074524944</v>
+        <v>0.03174315620441001</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>32</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2453546096.407586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5216526576.866184</v>
+        <v>4740397206.425954</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1293522254650478</v>
+        <v>0.1013244732232397</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03365979746086173</v>
+        <v>0.03784329239047621</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>26</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2608263327.100249</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2280142681.784856</v>
+        <v>3449717083.273705</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06567640083113084</v>
+        <v>0.06220405274548505</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04852425304510054</v>
+        <v>0.04594952623288395</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>29</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1140071420.035907</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5189917439.414026</v>
+        <v>4124516432.483634</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1532696852356064</v>
+        <v>0.1123465773126512</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05169748616122034</v>
+        <v>0.04065879990800687</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>28</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2594958787.525099</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2076923841.344928</v>
+        <v>2156601081.032237</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1177775003926201</v>
+        <v>0.1130393494298612</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03907842430693932</v>
+        <v>0.04665844578857573</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1038461935.479231</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3019150786.524202</v>
+        <v>2702573302.929239</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1012574711381159</v>
+        <v>0.07096513900777633</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03304817172923201</v>
+        <v>0.04420849292025399</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>26</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1509575371.390947</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5505194131.749223</v>
+        <v>4048170608.691618</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1653926416943597</v>
+        <v>0.128396665230008</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02463788623014205</v>
+        <v>0.03389936558594898</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>33</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2752597209.202616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2119253453.179064</v>
+        <v>1916909465.251585</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08337673882149134</v>
+        <v>0.07818068146906411</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03220125046601589</v>
+        <v>0.03288173017626959</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1059626653.590611</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3567720183.463454</v>
+        <v>2188582827.025389</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09032724771617107</v>
+        <v>0.07738905737527843</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0495792342464182</v>
+        <v>0.0355059838265697</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>35</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1783860035.667922</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3973312756.916617</v>
+        <v>3228692452.192849</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1793785767029971</v>
+        <v>0.1696719368792556</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03012367363737024</v>
+        <v>0.02427869190233485</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>31</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1986656359.614705</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1787890630.283916</v>
+        <v>2133566370.013488</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1595527511554316</v>
+        <v>0.1439893402151847</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0329504672951999</v>
+        <v>0.03633000133998888</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>893945299.1014723</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4293948496.729214</v>
+        <v>4571600979.297229</v>
       </c>
       <c r="F76" t="n">
-        <v>0.111343615443114</v>
+        <v>0.1178676490204829</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02770418548064077</v>
+        <v>0.03160860280347189</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2146974245.307273</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1941239047.170182</v>
+        <v>1814877799.285385</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1311356098788888</v>
+        <v>0.1501319614222803</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03061184050942145</v>
+        <v>0.03109290835947305</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>970619576.3368579</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4131800671.794443</v>
+        <v>4312969399.05486</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1108384853968548</v>
+        <v>0.1307947002244677</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04714045170235862</v>
+        <v>0.04487406658411523</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>31</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2065900292.119838</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1167424687.993814</v>
+        <v>1411938751.165427</v>
       </c>
       <c r="F79" t="n">
-        <v>0.16049986267186</v>
+        <v>0.1252586729152106</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03090924934570598</v>
+        <v>0.02461526000469254</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>583712319.9484547</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5100809680.752861</v>
+        <v>3950548880.890742</v>
       </c>
       <c r="F80" t="n">
-        <v>0.103551709213992</v>
+        <v>0.1022675559725698</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03711823541721179</v>
+        <v>0.0297439289573008</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>19</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2550404894.51347</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3366300697.491829</v>
+        <v>3813506802.5107</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08868370320791989</v>
+        <v>0.08501290938455412</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03094292091285664</v>
+        <v>0.02784823753022508</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1683150288.348519</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4524463749.450301</v>
+        <v>5475434097.452743</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1653290758537276</v>
+        <v>0.152755684841398</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02416744174293414</v>
+        <v>0.0219917482122475</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2262231885.131121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2368511034.052127</v>
+        <v>1953143791.309629</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09756240654765276</v>
+        <v>0.1533956479028933</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03966711249025723</v>
+        <v>0.04058356300241609</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1184255548.150272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1957384302.381288</v>
+        <v>2585934143.016684</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09584007153485528</v>
+        <v>0.08829896982416527</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03435322614939439</v>
+        <v>0.0344636633008374</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>978692162.3482863</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2431939279.333665</v>
+        <v>3597503876.909193</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1127737064010108</v>
+        <v>0.1169380614777586</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04094610284248931</v>
+        <v>0.04187743294795468</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>34</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1215969637.033715</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1876585120.132869</v>
+        <v>2118170277.620283</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1691061268376017</v>
+        <v>0.1277135101581944</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02248533575739827</v>
+        <v>0.02391019035122208</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>938292570.4664359</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1344524541.238732</v>
+        <v>1123425629.571748</v>
       </c>
       <c r="F87" t="n">
-        <v>0.167444866751199</v>
+        <v>0.1442203449523916</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03180377880910699</v>
+        <v>0.04359361944081124</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>672262363.1759655</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3068594048.655973</v>
+        <v>2249355316.009426</v>
       </c>
       <c r="F88" t="n">
-        <v>0.115428929959647</v>
+        <v>0.1620002194615102</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02659174281912606</v>
+        <v>0.03786366255344455</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>35</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1534297061.466744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2498363942.512502</v>
+        <v>3156847190.632849</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1292283526374018</v>
+        <v>0.1296394560371066</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03277499056480668</v>
+        <v>0.03752023966160344</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>30</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1249182046.062348</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1530807102.763319</v>
+        <v>1742914458.911594</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1196745395511714</v>
+        <v>0.1228039545541469</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05041000574902539</v>
+        <v>0.04288964151934964</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>765403535.6558502</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1703556549.586711</v>
+        <v>2054348186.522033</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1796334936491417</v>
+        <v>0.1399128084644949</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03912127878095022</v>
+        <v>0.04056052973751421</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>851778286.4931053</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2307764081.620188</v>
+        <v>2032342466.563093</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0936590392362692</v>
+        <v>0.1041971742288687</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03538873711838585</v>
+        <v>0.04348738286419641</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1153882010.162287</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3370693487.397472</v>
+        <v>3309657900.113943</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1094837380499871</v>
+        <v>0.1281996699686004</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04855587609195328</v>
+        <v>0.05386167454242353</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>26</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1685346784.905977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1761099274.768786</v>
+        <v>2183019300.024614</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1206715582698501</v>
+        <v>0.1687189923535434</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03084173206650902</v>
+        <v>0.02779939849844159</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>880549604.6114976</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2564283665.296613</v>
+        <v>2027330275.445166</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1352890238273823</v>
+        <v>0.1053695424172023</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04200997308082841</v>
+        <v>0.0356618223733052</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>21</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1282141863.994417</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1830330976.861247</v>
+        <v>2095704125.322018</v>
       </c>
       <c r="F96" t="n">
-        <v>0.126130602919986</v>
+        <v>0.1054101251333036</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04620638129285302</v>
+        <v>0.04344080200226798</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>915165493.4458122</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3329318168.552856</v>
+        <v>3965654765.805142</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1222412666072069</v>
+        <v>0.1615249574756348</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02160064236049411</v>
+        <v>0.01946068381305227</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>29</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1664659086.654639</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2714943953.675553</v>
+        <v>3155902394.092298</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1095818989618328</v>
+        <v>0.09859100346292442</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02145414562632883</v>
+        <v>0.02994512404503409</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>24</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1357471942.126502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2595220570.069153</v>
+        <v>2929973541.330142</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1013465189161958</v>
+        <v>0.1098267498391041</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02784740082353973</v>
+        <v>0.02701921441987127</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>29</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1297610241.558446</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3971666603.907286</v>
+        <v>4610938895.689532</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1272923456344628</v>
+        <v>0.1443517932121287</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01797422653486886</v>
+        <v>0.0245928780620634</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>27</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1985833370.297579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2601452533.378263</v>
+        <v>3473608821.649757</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1426017751152208</v>
+        <v>0.1639853818199007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04188455229249404</v>
+        <v>0.0354119858875245</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>38</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1300726303.00043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_90.xlsx
+++ b/output/fit_clients/fit_round_90.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2405089001.393015</v>
+        <v>1545743406.20249</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1081263410756769</v>
+        <v>0.1007821233636449</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03476791520034528</v>
+        <v>0.04513952590134961</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2180017318.945772</v>
+        <v>2090147512.310239</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1691645698472742</v>
+        <v>0.1768818115626838</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0497416631462034</v>
+        <v>0.04108125302321555</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4938379557.165828</v>
+        <v>3869615459.445075</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1545625681045792</v>
+        <v>0.1399422555234864</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02987729159305327</v>
+        <v>0.02671039743426391</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3980771770.051132</v>
+        <v>3630158501.411185</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07226293140348077</v>
+        <v>0.09417595095122747</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03163554686343006</v>
+        <v>0.04158207108447733</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2700836912.87104</v>
+        <v>2761743804.368974</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1331376511814345</v>
+        <v>0.1278445635837903</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04192907629469241</v>
+        <v>0.05311431363700912</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2582770756.192806</v>
+        <v>3129795555.257016</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07339368864758748</v>
+        <v>0.08324650697214037</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04913775931389395</v>
+        <v>0.04626596742899648</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2831011367.112167</v>
+        <v>3057727087.544221</v>
       </c>
       <c r="F8" t="n">
-        <v>0.200108385228754</v>
+        <v>0.1335306101082892</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02479218154810925</v>
+        <v>0.02392300074506201</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1671461963.748471</v>
+        <v>1701896148.147699</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1333864048959953</v>
+        <v>0.1680030421363458</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02726507241121883</v>
+        <v>0.03633864145963513</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4324890062.588631</v>
+        <v>5244454069.771922</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1826270052638923</v>
+        <v>0.2034534018107769</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04438131790760765</v>
+        <v>0.05187469349660769</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3329542898.873243</v>
+        <v>4180816270.838268</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1729118746057895</v>
+        <v>0.1867216007784807</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04174181247373603</v>
+        <v>0.03466472854853699</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2430476264.401743</v>
+        <v>2296819187.419827</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1976069013429471</v>
+        <v>0.130985215428895</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03645170427265406</v>
+        <v>0.04077728150441179</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5321575042.069769</v>
+        <v>3714571949.77888</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06252681614218605</v>
+        <v>0.08893916791614029</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02214374605767223</v>
+        <v>0.02709903995608516</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3379369224.777493</v>
+        <v>3285415901.424868</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1303989692281251</v>
+        <v>0.1717840847053388</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03303461639060536</v>
+        <v>0.03143966110723577</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1604904883.590876</v>
+        <v>1585016133.972204</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08589538634839904</v>
+        <v>0.1034696502466028</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04918875287770792</v>
+        <v>0.03041608426671972</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2694602588.984204</v>
+        <v>2324436504.59657</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09526233145388824</v>
+        <v>0.09265750841658324</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03402306324874858</v>
+        <v>0.04419134817416698</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4151296630.629686</v>
+        <v>5173424447.454341</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1216351368309628</v>
+        <v>0.110425737849973</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04639206430566915</v>
+        <v>0.04473296955220587</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2699665953.123634</v>
+        <v>3992277407.39548</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1432384816472956</v>
+        <v>0.1647737856948299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03190755147278596</v>
+        <v>0.02526141813594394</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1273443062.810916</v>
+        <v>955233093.5717192</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1797090327070111</v>
+        <v>0.1726069847214924</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01735912320237827</v>
+        <v>0.01947590467791394</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1701976292.090035</v>
+        <v>2516456620.722928</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1507448990852961</v>
+        <v>0.1461589778497298</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02445913885876181</v>
+        <v>0.03080356042836166</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2384453209.349958</v>
+        <v>2169546417.146974</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08663229493899666</v>
+        <v>0.09427504692224205</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0446829144092516</v>
+        <v>0.03379556511754288</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2848199523.137542</v>
+        <v>3558051308.130895</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09478558326141999</v>
+        <v>0.119725005577399</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05027084504313428</v>
+        <v>0.04242544950473024</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1329855789.365506</v>
+        <v>1247990190.899927</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1167813581254732</v>
+        <v>0.1511362169664856</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04034119804180962</v>
+        <v>0.03591520461132233</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3700804621.598714</v>
+        <v>2615124220.265101</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1226968310912091</v>
+        <v>0.1233149258883123</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02560393897764193</v>
+        <v>0.03335827306413679</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1472802862.836661</v>
+        <v>1238327238.220777</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07597949664092293</v>
+        <v>0.1097505289976487</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03016105131021506</v>
+        <v>0.02592920002755865</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1009274615.06712</v>
+        <v>1256726857.466022</v>
       </c>
       <c r="F26" t="n">
-        <v>0.105405810395512</v>
+        <v>0.09131382932155667</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03356829506242773</v>
+        <v>0.02994398053356491</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4713588904.933535</v>
+        <v>4478394225.154216</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1178313698499572</v>
+        <v>0.1134679812111648</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01708884970350275</v>
+        <v>0.02627485482982076</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3393876664.915307</v>
+        <v>3037719994.533392</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09771530840746093</v>
+        <v>0.1058730978019281</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04714215106794264</v>
+        <v>0.03548443546990918</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5469155941.268559</v>
+        <v>5081851500.479854</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1500686469022519</v>
+        <v>0.1015322910450988</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0408779886390215</v>
+        <v>0.02998975596016044</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1760918085.108217</v>
+        <v>1678399980.130963</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1276674929854726</v>
+        <v>0.09501949432013813</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03468348766831835</v>
+        <v>0.02787533547206746</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1274889297.029819</v>
+        <v>1412519180.447903</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06757271776527306</v>
+        <v>0.09699838286355782</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05112107457739356</v>
+        <v>0.04086210883503164</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1611751482.377677</v>
+        <v>1197298527.762318</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1071156558695141</v>
+        <v>0.1163717891066366</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02464696691541373</v>
+        <v>0.02924257920062096</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2597230614.415808</v>
+        <v>2084189406.020652</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1465163940588093</v>
+        <v>0.153911288867938</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04192587973466168</v>
+        <v>0.05148641564822645</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1013309582.063095</v>
+        <v>1008313256.45074</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09172167083442463</v>
+        <v>0.08127122790393351</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02561292148086533</v>
+        <v>0.02537557256146401</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1178433519.73043</v>
+        <v>943298394.8079957</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07885243749572048</v>
+        <v>0.09527512636537319</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03010278848687559</v>
+        <v>0.04466748035939911</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2032687769.019584</v>
+        <v>2910411474.343464</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1623727068633205</v>
+        <v>0.1224943139098742</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02180175166260772</v>
+        <v>0.02529468409838586</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2497032939.857641</v>
+        <v>2802282403.136206</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08872955825134589</v>
+        <v>0.07073721034606636</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02971438230844345</v>
+        <v>0.03094713546750232</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1642501855.440973</v>
+        <v>2129164603.625327</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09487259840957975</v>
+        <v>0.08465474295542184</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03323398756806628</v>
+        <v>0.03987671545709959</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1832494682.451109</v>
+        <v>1610299617.127947</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1751346892016637</v>
+        <v>0.1727245970942207</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0294454188893517</v>
+        <v>0.02223411324772656</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1394077959.281317</v>
+        <v>1113338758.188511</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1435598400363867</v>
+        <v>0.1364472494421463</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05980958230130243</v>
+        <v>0.04449263710291947</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2153744415.891269</v>
+        <v>2860321147.688615</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1133273866054911</v>
+        <v>0.1581512199817807</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04017091132222319</v>
+        <v>0.04224312352627071</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3493945396.338612</v>
+        <v>3669051190.167719</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1166309743118649</v>
+        <v>0.1026850747224592</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04453126714512966</v>
+        <v>0.03355942521760874</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2041368279.8916</v>
+        <v>3075102638.772669</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1777960134463024</v>
+        <v>0.2009289580693277</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02203172255883189</v>
+        <v>0.01703413073471843</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1860637345.237134</v>
+        <v>1857929256.695185</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08642968777891995</v>
+        <v>0.1010681184683727</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03087600318572433</v>
+        <v>0.02543230259617919</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2202981994.378026</v>
+        <v>2341605803.244813</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1410969608449876</v>
+        <v>0.1220228451388795</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05041213076306379</v>
+        <v>0.04060819186828919</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4987780579.472014</v>
+        <v>5408701860.55286</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1507054534496896</v>
+        <v>0.1268500958857054</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04603380010490445</v>
+        <v>0.03857595062967719</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4442557427.521653</v>
+        <v>4276426649.988949</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1371981812026813</v>
+        <v>0.1734282109462768</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05048276259706458</v>
+        <v>0.04460463787350332</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3876721139.215898</v>
+        <v>4558412597.223248</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1100402485224332</v>
+        <v>0.08575448940456104</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03296566140532094</v>
+        <v>0.03559882809780981</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1707271846.543573</v>
+        <v>1907721875.340423</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1649051490383998</v>
+        <v>0.1494669391540893</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03882246936309156</v>
+        <v>0.03179067576809793</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3096495036.355802</v>
+        <v>4044129876.58655</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1340563829713175</v>
+        <v>0.1092777917215152</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04578301653864289</v>
+        <v>0.0492457796552558</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1052459215.987047</v>
+        <v>1456644039.518215</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1383058820096406</v>
+        <v>0.1812900633828816</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05125737250013022</v>
+        <v>0.04642048436264826</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3250497580.249103</v>
+        <v>4901013872.532909</v>
       </c>
       <c r="F52" t="n">
-        <v>0.119124583419584</v>
+        <v>0.1325171221450963</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05784541453445702</v>
+        <v>0.04178794152162209</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2332489369.625414</v>
+        <v>2426534407.621969</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1640288878256233</v>
+        <v>0.1991206861452965</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02219039045547458</v>
+        <v>0.0238278545244293</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4646922437.52704</v>
+        <v>4222718524.017383</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1073962381058077</v>
+        <v>0.1433744697214589</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0525634736714088</v>
+        <v>0.04169819762628128</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4980046232.74911</v>
+        <v>3494384544.670846</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1535858725898525</v>
+        <v>0.2241939512852514</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02450396855127298</v>
+        <v>0.02850840844573</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1549847394.619499</v>
+        <v>1319289804.139998</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1621193833405791</v>
+        <v>0.1501532245260352</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04530338908147336</v>
+        <v>0.05711628709126142</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3777485157.063649</v>
+        <v>3942584815.52128</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1333160574893484</v>
+        <v>0.1251314239900703</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02615020309838788</v>
+        <v>0.02370709289607616</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1899328111.634802</v>
+        <v>1401608779.726494</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2004513154546891</v>
+        <v>0.1277551206672899</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03280776690322793</v>
+        <v>0.03382158085063931</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4032193177.331379</v>
+        <v>3292230754.385993</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1002783949304648</v>
+        <v>0.1106095108469913</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0304694631049794</v>
+        <v>0.04356779724315893</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3127106134.379265</v>
+        <v>3554901079.993099</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1621146834827303</v>
+        <v>0.1276177616851094</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02803090781318378</v>
+        <v>0.02891541149047026</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2256513373.212383</v>
+        <v>2556496025.35644</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1378967991893552</v>
+        <v>0.1574601048884982</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02248864924576818</v>
+        <v>0.02510440256639224</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1895830098.503361</v>
+        <v>2088986615.246304</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1528458554390058</v>
+        <v>0.1383748569320638</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04000283782732582</v>
+        <v>0.04635362674595582</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5590059949.650517</v>
+        <v>4648365259.342929</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06480300491356165</v>
+        <v>0.07986175195711101</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03679319755392162</v>
+        <v>0.03552815267060176</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4466239193.870315</v>
+        <v>3602184197.977314</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1494994757138847</v>
+        <v>0.1243155581013744</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02924086230297461</v>
+        <v>0.02800336474801314</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5523960474.046583</v>
+        <v>5823851239.166723</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1560940445855627</v>
+        <v>0.1651860411189205</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03174315620441001</v>
+        <v>0.03137338234365567</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4740397206.425954</v>
+        <v>3894765391.133902</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1013244732232397</v>
+        <v>0.145371940277682</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03784329239047621</v>
+        <v>0.04102556408030223</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3449717083.273705</v>
+        <v>2481366556.841473</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06220405274548505</v>
+        <v>0.07546721360852551</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04594952623288395</v>
+        <v>0.03489059892347251</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4124516432.483634</v>
+        <v>5591539171.008686</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1123465773126512</v>
+        <v>0.1384571576240616</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04065879990800687</v>
+        <v>0.03310820302408896</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2156601081.032237</v>
+        <v>2321972646.522085</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1130393494298612</v>
+        <v>0.1562690827223527</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04665844578857573</v>
+        <v>0.0553040622562844</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2702573302.929239</v>
+        <v>3467920281.152354</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07096513900777633</v>
+        <v>0.08498179738296809</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04420849292025399</v>
+        <v>0.04756731262023763</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4048170608.691618</v>
+        <v>5556842055.306849</v>
       </c>
       <c r="F71" t="n">
-        <v>0.128396665230008</v>
+        <v>0.1584313878497479</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03389936558594898</v>
+        <v>0.02658832970981743</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1916909465.251585</v>
+        <v>1947098700.693205</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07818068146906411</v>
+        <v>0.09895144140237326</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03288173017626959</v>
+        <v>0.03666281178834702</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2188582827.025389</v>
+        <v>2221063233.659809</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07738905737527843</v>
+        <v>0.07880223669598621</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0355059838265697</v>
+        <v>0.03680663951223168</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3228692452.192849</v>
+        <v>3733329270.403409</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1696719368792556</v>
+        <v>0.1314071286113486</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02427869190233485</v>
+        <v>0.02285236004059224</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2133566370.013488</v>
+        <v>1986313745.825899</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1439893402151847</v>
+        <v>0.1091067308268074</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03633000133998888</v>
+        <v>0.0333251883809212</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4571600979.297229</v>
+        <v>4725726015.751912</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1178676490204829</v>
+        <v>0.07902139524615416</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03160860280347189</v>
+        <v>0.02534538055523611</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1814877799.285385</v>
+        <v>2286053268.245005</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1501319614222803</v>
+        <v>0.1851512352340451</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03109290835947305</v>
+        <v>0.027823611113924</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4312969399.05486</v>
+        <v>3886902622.542491</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1307947002244677</v>
+        <v>0.08243701225461914</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04487406658411523</v>
+        <v>0.05688086464994797</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1411938751.165427</v>
+        <v>1187668570.944484</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1252586729152106</v>
+        <v>0.1147740317060553</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02461526000469254</v>
+        <v>0.02839518812313248</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3950548880.890742</v>
+        <v>4211629623.919841</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1022675559725698</v>
+        <v>0.1076614242523998</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0297439289573008</v>
+        <v>0.03216630919509489</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3813506802.5107</v>
+        <v>4762700258.130342</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08501290938455412</v>
+        <v>0.094483420188676</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02784823753022508</v>
+        <v>0.03166339395131573</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5475434097.452743</v>
+        <v>4224004890.410373</v>
       </c>
       <c r="F82" t="n">
-        <v>0.152755684841398</v>
+        <v>0.1309807385416439</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0219917482122475</v>
+        <v>0.01940724928623071</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1953143791.309629</v>
+        <v>2081957204.8214</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1533956479028933</v>
+        <v>0.1207802522563664</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04058356300241609</v>
+        <v>0.03011007414813604</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2585934143.016684</v>
+        <v>2019334987.168065</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08829896982416527</v>
+        <v>0.09248976378548565</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0344636633008374</v>
+        <v>0.04810109577519001</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3597503876.909193</v>
+        <v>2724402665.050048</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1169380614777586</v>
+        <v>0.1198494837225523</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04187743294795468</v>
+        <v>0.04261345385606049</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2118170277.620283</v>
+        <v>1742363542.733145</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1277135101581944</v>
+        <v>0.1069724160360201</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02391019035122208</v>
+        <v>0.02150440471392968</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1123425629.571748</v>
+        <v>1078614416.83603</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1442203449523916</v>
+        <v>0.1903079601027938</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04359361944081124</v>
+        <v>0.03517477326692919</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2249355316.009426</v>
+        <v>3193361922.947014</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1620002194615102</v>
+        <v>0.1491371155152761</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03786366255344455</v>
+        <v>0.02425826170693875</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3156847190.632849</v>
+        <v>2673633152.776592</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1296394560371066</v>
+        <v>0.1458569279590323</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03752023966160344</v>
+        <v>0.03807149955542764</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1742914458.911594</v>
+        <v>1498691790.184281</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1228039545541469</v>
+        <v>0.126073289561896</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04288964151934964</v>
+        <v>0.03815715851130123</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2054348186.522033</v>
+        <v>1953133466.618308</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1399128084644949</v>
+        <v>0.1827171653872136</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04056052973751421</v>
+        <v>0.06050852724900117</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2032342466.563093</v>
+        <v>1994034044.219731</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1041971742288687</v>
+        <v>0.08049527007078744</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04348738286419641</v>
+        <v>0.0395831836779709</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3309657900.113943</v>
+        <v>3079013576.626337</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1281996699686004</v>
+        <v>0.09786529239452828</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05386167454242353</v>
+        <v>0.04805617432386777</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2183019300.024614</v>
+        <v>2076392416.041086</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1687189923535434</v>
+        <v>0.1646309999328156</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02779939849844159</v>
+        <v>0.03176930121039054</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2027330275.445166</v>
+        <v>2085468653.311992</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1053695424172023</v>
+        <v>0.1174432867338079</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0356618223733052</v>
+        <v>0.037825458836971</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2095704125.322018</v>
+        <v>2117761777.476817</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1054101251333036</v>
+        <v>0.1208351958040337</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04344080200226798</v>
+        <v>0.04221932036871857</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3965654765.805142</v>
+        <v>5014204820.021222</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1615249574756348</v>
+        <v>0.1584197790273754</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01946068381305227</v>
+        <v>0.02661559959399682</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3155902394.092298</v>
+        <v>3373409976.223418</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09859100346292442</v>
+        <v>0.09402079538984792</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02994512404503409</v>
+        <v>0.029672650918557</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2929973541.330142</v>
+        <v>3304693534.910847</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1098267498391041</v>
+        <v>0.09250679463557032</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02701921441987127</v>
+        <v>0.03329336255022165</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4610938895.689532</v>
+        <v>4749541180.126471</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1443517932121287</v>
+        <v>0.1474792331835715</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0245928780620634</v>
+        <v>0.02624847113933928</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3473608821.649757</v>
+        <v>2729561736.714357</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1639853818199007</v>
+        <v>0.1631756862790591</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0354119858875245</v>
+        <v>0.05807263130969068</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_90.xlsx
+++ b/output/fit_clients/fit_round_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1545743406.20249</v>
+        <v>2498601023.472836</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1007821233636449</v>
+        <v>0.09844619863227495</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04513952590134961</v>
+        <v>0.03311326562317302</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2090147512.310239</v>
+        <v>1614690274.079964</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1768818115626838</v>
+        <v>0.1280359201325267</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04108125302321555</v>
+        <v>0.035386213553624</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3869615459.445075</v>
+        <v>4501073771.982357</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1399422555234864</v>
+        <v>0.1667172709911914</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02671039743426391</v>
+        <v>0.02396470936346197</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>58</v>
+      </c>
+      <c r="J4" t="n">
+        <v>89</v>
+      </c>
+      <c r="K4" t="n">
+        <v>170.9455217070711</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3630158501.411185</v>
+        <v>3803584143.113732</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09417595095122747</v>
+        <v>0.08558024142464957</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04158207108447733</v>
+        <v>0.0446257062799013</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>90</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2761743804.368974</v>
+        <v>1839063232.920496</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1278445635837903</v>
+        <v>0.1093242938559105</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05311431363700912</v>
+        <v>0.05502467009027357</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3129795555.257016</v>
+        <v>3104959841.553902</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08324650697214037</v>
+        <v>0.09745878238251397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04626596742899648</v>
+        <v>0.0482806994003284</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3057727087.544221</v>
+        <v>3899588514.100859</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1335306101082892</v>
+        <v>0.1414809443328332</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02392300074506201</v>
+        <v>0.02145998154168951</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>89</v>
+      </c>
+      <c r="K8" t="n">
+        <v>145.4238641522743</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1701896148.147699</v>
+        <v>2077607976.401128</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1680030421363458</v>
+        <v>0.1850043346770543</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03633864145963513</v>
+        <v>0.02893521749268924</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5244454069.771922</v>
+        <v>5025993213.344582</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2034534018107769</v>
+        <v>0.2153372724252104</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05187469349660769</v>
+        <v>0.03965329486069564</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>84</v>
+      </c>
+      <c r="J10" t="n">
+        <v>90</v>
+      </c>
+      <c r="K10" t="n">
+        <v>190.5116859949723</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4180816270.838268</v>
+        <v>2915431657.780743</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1867216007784807</v>
+        <v>0.188748797603677</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03466472854853699</v>
+        <v>0.03387916931269747</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>88</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2296819187.419827</v>
+        <v>2721419118.370599</v>
       </c>
       <c r="F12" t="n">
-        <v>0.130985215428895</v>
+        <v>0.1357427197565752</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04077728150441179</v>
+        <v>0.04648090904333268</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3714571949.77888</v>
+        <v>4310884803.695863</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08893916791614029</v>
+        <v>0.08544597545174577</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02709903995608516</v>
+        <v>0.03061974670533384</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>45</v>
+      </c>
+      <c r="J13" t="n">
+        <v>90</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3285415901.424868</v>
+        <v>3484239121.407477</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1717840847053388</v>
+        <v>0.125538811365055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03143966110723577</v>
+        <v>0.03112985860433969</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>17</v>
+      </c>
+      <c r="J14" t="n">
+        <v>89</v>
+      </c>
+      <c r="K14" t="n">
+        <v>110.960819863086</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1585016133.972204</v>
+        <v>1348130814.343182</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1034696502466028</v>
+        <v>0.1083677815042481</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03041608426671972</v>
+        <v>0.03581467811317204</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2324436504.59657</v>
+        <v>2461154478.179515</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09265750841658324</v>
+        <v>0.07151435333536525</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04419134817416698</v>
+        <v>0.03902109951521553</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5173424447.454341</v>
+        <v>5087269531.525772</v>
       </c>
       <c r="F17" t="n">
-        <v>0.110425737849973</v>
+        <v>0.1429413947338976</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04473296955220587</v>
+        <v>0.04407278458971847</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>43</v>
+      </c>
+      <c r="J17" t="n">
+        <v>90</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3992277407.39548</v>
+        <v>2583103836.064115</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1647737856948299</v>
+        <v>0.1718904566464541</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02526141813594394</v>
+        <v>0.03199020925347518</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>88</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>955233093.5717192</v>
+        <v>996539102.2249578</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1726069847214924</v>
+        <v>0.1272770275544036</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01947590467791394</v>
+        <v>0.01819627820173279</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2516456620.722928</v>
+        <v>1933172493.286886</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1461589778497298</v>
+        <v>0.1126568456768291</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03080356042836166</v>
+        <v>0.02125502738038381</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2169546417.146974</v>
+        <v>2214716726.963066</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09427504692224205</v>
+        <v>0.06456217234352468</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03379556511754288</v>
+        <v>0.03262746263095644</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3558051308.130895</v>
+        <v>3093281672.090858</v>
       </c>
       <c r="F22" t="n">
-        <v>0.119725005577399</v>
+        <v>0.08936119245940392</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04242544950473024</v>
+        <v>0.04798634833502578</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>87</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1247990190.899927</v>
+        <v>971025258.1652869</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1511362169664856</v>
+        <v>0.1642782693147834</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03591520461132233</v>
+        <v>0.05132387676804103</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2615124220.265101</v>
+        <v>3689427576.030008</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1233149258883123</v>
+        <v>0.09799056212908976</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03335827306413679</v>
+        <v>0.02772153493881715</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>90</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1238327238.220777</v>
+        <v>1387097730.148865</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1097505289976487</v>
+        <v>0.07596291657136048</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02592920002755865</v>
+        <v>0.02275289185667001</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1256726857.466022</v>
+        <v>1214734696.957616</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09131382932155667</v>
+        <v>0.1131124119783975</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02994398053356491</v>
+        <v>0.02686150394428918</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4478394225.154216</v>
+        <v>3067150696.344126</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1134679812111648</v>
+        <v>0.1017358121920963</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02627485482982076</v>
+        <v>0.02038297846607097</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>36</v>
+      </c>
+      <c r="J27" t="n">
+        <v>89</v>
+      </c>
+      <c r="K27" t="n">
+        <v>74.93109214731511</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3037719994.533392</v>
+        <v>2827381866.992419</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1058730978019281</v>
+        <v>0.1027344090316411</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03548443546990918</v>
+        <v>0.04398862284677125</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5081851500.479854</v>
+        <v>5744226262.675284</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1015322910450988</v>
+        <v>0.1164733379753216</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02998975596016044</v>
+        <v>0.03018298876848336</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>84</v>
+      </c>
+      <c r="J29" t="n">
+        <v>90</v>
+      </c>
+      <c r="K29" t="n">
+        <v>201.4248271217853</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1678399980.130963</v>
+        <v>2214996501.165831</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09501949432013813</v>
+        <v>0.1096372586381608</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02787533547206746</v>
+        <v>0.03726203430956568</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1412519180.447903</v>
+        <v>906611547.9547081</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09699838286355782</v>
+        <v>0.09375425315008064</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04086210883503164</v>
+        <v>0.04414569929595496</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1197298527.762318</v>
+        <v>1817880547.981806</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1163717891066366</v>
+        <v>0.1039797364416137</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02924257920062096</v>
+        <v>0.0350701881884802</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2084189406.020652</v>
+        <v>3039723977.507217</v>
       </c>
       <c r="F33" t="n">
-        <v>0.153911288867938</v>
+        <v>0.1294507342142358</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05148641564822645</v>
+        <v>0.0420028287765862</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1008313256.45074</v>
+        <v>1216007722.851347</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08127122790393351</v>
+        <v>0.0753352451845372</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02537557256146401</v>
+        <v>0.02702420097052484</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>943298394.8079957</v>
+        <v>1140364367.464617</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09527512636537319</v>
+        <v>0.07324465747768713</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04466748035939911</v>
+        <v>0.0277469253209606</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2910411474.343464</v>
+        <v>2552722768.183723</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1224943139098742</v>
+        <v>0.1202871822415688</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02529468409838586</v>
+        <v>0.02738220479403112</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2802282403.136206</v>
+        <v>2356449792.180972</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07073721034606636</v>
+        <v>0.09078728601212745</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03094713546750232</v>
+        <v>0.04163617017202104</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2129164603.625327</v>
+        <v>2105178079.782367</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08465474295542184</v>
+        <v>0.1013639710040068</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03987671545709959</v>
+        <v>0.03305074265215214</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1610299617.127947</v>
+        <v>1915509974.564208</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1727245970942207</v>
+        <v>0.117268940937927</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02223411324772656</v>
+        <v>0.02417233513896134</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1113338758.188511</v>
+        <v>1482405555.609424</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1364472494421463</v>
+        <v>0.09913231319061343</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04449263710291947</v>
+        <v>0.04986809701419036</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2860321147.688615</v>
+        <v>2608891806.237314</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1581512199817807</v>
+        <v>0.1460336864517948</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04224312352627071</v>
+        <v>0.04196225702088257</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1913,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3669051190.167719</v>
+        <v>3284469294.750422</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1026850747224592</v>
+        <v>0.1063141770270285</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03355942521760874</v>
+        <v>0.03994423378436249</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>34</v>
+      </c>
+      <c r="J42" t="n">
+        <v>88</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3075102638.772669</v>
+        <v>2948244431.799253</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2009289580693277</v>
+        <v>0.1321718231724822</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01703413073471843</v>
+        <v>0.02008445262019358</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1857929256.695185</v>
+        <v>1763052521.305603</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1010681184683727</v>
+        <v>0.09550970574431673</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02543230259617919</v>
+        <v>0.03167262794794303</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2341605803.244813</v>
+        <v>1979403753.690188</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1220228451388795</v>
+        <v>0.1266255762567594</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04060819186828919</v>
+        <v>0.03574801550578147</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2053,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5408701860.55286</v>
+        <v>4366445155.984363</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1268500958857054</v>
+        <v>0.1169344261828635</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03857595062967719</v>
+        <v>0.05473696596386175</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>51</v>
+      </c>
+      <c r="J46" t="n">
+        <v>90</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4276426649.988949</v>
+        <v>3568922217.307712</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1734282109462768</v>
+        <v>0.1846414032423633</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04460463787350332</v>
+        <v>0.051583256729423</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>41</v>
+      </c>
+      <c r="J47" t="n">
+        <v>89</v>
+      </c>
+      <c r="K47" t="n">
+        <v>101.5165457595408</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4558412597.223248</v>
+        <v>4403771534.631432</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08575448940456104</v>
+        <v>0.1092092990561611</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03559882809780981</v>
+        <v>0.03160767121084</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>34</v>
+      </c>
+      <c r="J48" t="n">
+        <v>90</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1907721875.340423</v>
+        <v>1373676082.55325</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1494669391540893</v>
+        <v>0.1616279956591694</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03179067576809793</v>
+        <v>0.03159745706022999</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4044129876.58655</v>
+        <v>3680759286.765007</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1092777917215152</v>
+        <v>0.1689132713169766</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0492457796552558</v>
+        <v>0.0390598598827446</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>90</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1456644039.518215</v>
+        <v>1416042567.904073</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1812900633828816</v>
+        <v>0.1919743094563908</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04642048436264826</v>
+        <v>0.04073371417389463</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4901013872.532909</v>
+        <v>3594821747.027873</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1325171221450963</v>
+        <v>0.08576728197342465</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04178794152162209</v>
+        <v>0.04864664365411286</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>69</v>
+      </c>
+      <c r="J52" t="n">
+        <v>89</v>
+      </c>
+      <c r="K52" t="n">
+        <v>130.019126644137</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2426534407.621969</v>
+        <v>3762905835.580882</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1991206861452965</v>
+        <v>0.1257469785028837</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0238278545244293</v>
+        <v>0.02968353158899461</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4222718524.017383</v>
+        <v>4955982118.894634</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1433744697214589</v>
+        <v>0.1699316138231143</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04169819762628128</v>
+        <v>0.03867149928833361</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>40</v>
+      </c>
+      <c r="J54" t="n">
+        <v>90</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3494384544.670846</v>
+        <v>4239602611.102361</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2241939512852514</v>
+        <v>0.141298881658536</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02850840844573</v>
+        <v>0.03151416465168527</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>41</v>
+      </c>
+      <c r="J55" t="n">
+        <v>89</v>
+      </c>
+      <c r="K55" t="n">
+        <v>153.9469610680186</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1319289804.139998</v>
+        <v>1328260344.089571</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1501532245260352</v>
+        <v>0.146215998876846</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05711628709126142</v>
+        <v>0.04828197203995204</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2444,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3942584815.52128</v>
+        <v>3783114712.659216</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1251314239900703</v>
+        <v>0.1280250747156542</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02370709289607616</v>
+        <v>0.02420376753015512</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>34</v>
+      </c>
+      <c r="J57" t="n">
+        <v>89</v>
+      </c>
+      <c r="K57" t="n">
+        <v>129.5995074457197</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1401608779.726494</v>
+        <v>1716941113.296409</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1277551206672899</v>
+        <v>0.1726852817709698</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03382158085063931</v>
+        <v>0.0241867513951653</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3292230754.385993</v>
+        <v>4500370431.026365</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1106095108469913</v>
+        <v>0.09905976368369884</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04356779724315893</v>
+        <v>0.04004090168452078</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>44</v>
+      </c>
+      <c r="J59" t="n">
+        <v>89</v>
+      </c>
+      <c r="K59" t="n">
+        <v>155.1571041400868</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3554901079.993099</v>
+        <v>3233104575.610942</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1276177616851094</v>
+        <v>0.1573221088983406</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02891541149047026</v>
+        <v>0.02276053874856175</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>12</v>
+      </c>
+      <c r="J60" t="n">
+        <v>87</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2556496025.35644</v>
+        <v>2436084566.996074</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1574601048884982</v>
+        <v>0.1236000107388655</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02510440256639224</v>
+        <v>0.02854225003732043</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2088986615.246304</v>
+        <v>2018571180.122136</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1383748569320638</v>
+        <v>0.1691502642486554</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04635362674595582</v>
+        <v>0.04827730642635194</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4648365259.342929</v>
+        <v>4767884447.310572</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07986175195711101</v>
+        <v>0.08718536676532275</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03552815267060176</v>
+        <v>0.04084568212950049</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>44</v>
+      </c>
+      <c r="J63" t="n">
+        <v>90</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3602184197.977314</v>
+        <v>4866434715.453932</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1243155581013744</v>
+        <v>0.1909809571123573</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02800336474801314</v>
+        <v>0.03343423205620875</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>44</v>
+      </c>
+      <c r="J64" t="n">
+        <v>90</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5823851239.166723</v>
+        <v>5711613034.244274</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1651860411189205</v>
+        <v>0.1333715858204906</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03137338234365567</v>
+        <v>0.03129113644502286</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>72</v>
+      </c>
+      <c r="J65" t="n">
+        <v>90</v>
+      </c>
+      <c r="K65" t="n">
+        <v>175.2975029168551</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2765,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3894765391.133902</v>
+        <v>4102765659.293737</v>
       </c>
       <c r="F66" t="n">
-        <v>0.145371940277682</v>
+        <v>0.1197593923074458</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04102556408030223</v>
+        <v>0.04781166588517324</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>44</v>
+      </c>
+      <c r="J66" t="n">
+        <v>90</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2481366556.841473</v>
+        <v>2462056657.371291</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07546721360852551</v>
+        <v>0.07310841216959148</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03489059892347251</v>
+        <v>0.04570668788639395</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2835,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5591539171.008686</v>
+        <v>5720961087.419724</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1384571576240616</v>
+        <v>0.1517842686414899</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03310820302408896</v>
+        <v>0.04112734318537323</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>45</v>
+      </c>
+      <c r="J68" t="n">
+        <v>89</v>
+      </c>
+      <c r="K68" t="n">
+        <v>162.4554250998131</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2321972646.522085</v>
+        <v>2444194115.366451</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1562690827223527</v>
+        <v>0.1284739091379948</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0553040622562844</v>
+        <v>0.03663587320314072</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3467920281.152354</v>
+        <v>2737874431.808104</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08498179738296809</v>
+        <v>0.1001263021179503</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04756731262023763</v>
+        <v>0.04828978901421679</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>81</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5556842055.306849</v>
+        <v>4497078815.87176</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1584313878497479</v>
+        <v>0.1567347846801176</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02658832970981743</v>
+        <v>0.02550209298847013</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>74</v>
+      </c>
+      <c r="J71" t="n">
+        <v>90</v>
+      </c>
+      <c r="K71" t="n">
+        <v>177.6479701484071</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1947098700.693205</v>
+        <v>1508625103.2665</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09895144140237326</v>
+        <v>0.08569611790669403</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03666281178834702</v>
+        <v>0.03699526778185556</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2221063233.659809</v>
+        <v>2220813531.268211</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07880223669598621</v>
+        <v>0.07654088398069767</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03680663951223168</v>
+        <v>0.03590104172993003</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3733329270.403409</v>
+        <v>3586031602.339574</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1314071286113486</v>
+        <v>0.1796385142326522</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02285236004059224</v>
+        <v>0.03264072199203987</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>28</v>
+      </c>
+      <c r="J74" t="n">
+        <v>89</v>
+      </c>
+      <c r="K74" t="n">
+        <v>122.7301579222519</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1986313745.825899</v>
+        <v>2323900073.835955</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1091067308268074</v>
+        <v>0.1032009079976063</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0333251883809212</v>
+        <v>0.0320525844632561</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4725726015.751912</v>
+        <v>4811845782.776178</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07902139524615416</v>
+        <v>0.1191039527752374</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02534538055523611</v>
+        <v>0.03312310422107274</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>41</v>
+      </c>
+      <c r="J76" t="n">
+        <v>90</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2286053268.245005</v>
+        <v>2098301638.871038</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1851512352340451</v>
+        <v>0.1788327741507938</v>
       </c>
       <c r="G77" t="n">
-        <v>0.027823611113924</v>
+        <v>0.02267296983572087</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3886902622.542491</v>
+        <v>4531494949.518216</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08243701225461914</v>
+        <v>0.1339655695425664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05688086464994797</v>
+        <v>0.04219398699414154</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>44</v>
+      </c>
+      <c r="J78" t="n">
+        <v>90</v>
+      </c>
+      <c r="K78" t="n">
+        <v>180.2558565173876</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1187668570.944484</v>
+        <v>1501958586.473147</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1147740317060553</v>
+        <v>0.1661488330187846</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02839518812313248</v>
+        <v>0.03678453389022202</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4211629623.919841</v>
+        <v>5235800295.461353</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1076614242523998</v>
+        <v>0.08671060838919932</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03216630919509489</v>
+        <v>0.03239949825777982</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>43</v>
+      </c>
+      <c r="J80" t="n">
+        <v>89</v>
+      </c>
+      <c r="K80" t="n">
+        <v>131.1737636516622</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4762700258.130342</v>
+        <v>3487828631.038304</v>
       </c>
       <c r="F81" t="n">
-        <v>0.094483420188676</v>
+        <v>0.0942134016804419</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03166339395131573</v>
+        <v>0.03012782474386292</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>41</v>
+      </c>
+      <c r="J81" t="n">
+        <v>89</v>
+      </c>
+      <c r="K81" t="n">
+        <v>96.49202217107451</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4224004890.410373</v>
+        <v>4826750189.005384</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1309807385416439</v>
+        <v>0.1785963265980839</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01940724928623071</v>
+        <v>0.02058207018821746</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>57</v>
+      </c>
+      <c r="J82" t="n">
+        <v>90</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2081957204.8214</v>
+        <v>1898628107.878387</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1207802522563664</v>
+        <v>0.1251019835399401</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03011007414813604</v>
+        <v>0.04235045245698899</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2019334987.168065</v>
+        <v>2584131351.929573</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09248976378548565</v>
+        <v>0.09890748226068746</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04810109577519001</v>
+        <v>0.04989999962359933</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2724402665.050048</v>
+        <v>2280808124.898851</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1198494837225523</v>
+        <v>0.1828264113611766</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04261345385606049</v>
+        <v>0.04724771682214722</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" t="n">
+        <v>88</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1742363542.733145</v>
+        <v>1827630726.127996</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1069724160360201</v>
+        <v>0.1209888403939089</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02150440471392968</v>
+        <v>0.02028130351257345</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1078614416.83603</v>
+        <v>1154655807.393558</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1903079601027938</v>
+        <v>0.1401236857330607</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03517477326692919</v>
+        <v>0.03311072698801271</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3193361922.947014</v>
+        <v>2719653555.656941</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1491371155152761</v>
+        <v>0.1417490387837208</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02425826170693875</v>
+        <v>0.03664408349682129</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>13</v>
+      </c>
+      <c r="J88" t="n">
+        <v>86</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2673633152.776592</v>
+        <v>3055421112.349736</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1458569279590323</v>
+        <v>0.1314433341782786</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03807149955542764</v>
+        <v>0.02894943281669276</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1498691790.184281</v>
+        <v>2032954704.123855</v>
       </c>
       <c r="F90" t="n">
-        <v>0.126073289561896</v>
+        <v>0.1112488134178999</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03815715851130123</v>
+        <v>0.04042305201255984</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1953133466.618308</v>
+        <v>1354127957.215381</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1827171653872136</v>
+        <v>0.1566753144490566</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06050852724900117</v>
+        <v>0.05833709926384772</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1994034044.219731</v>
+        <v>2024617461.332589</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08049527007078744</v>
+        <v>0.09252671082284197</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0395831836779709</v>
+        <v>0.04520986295794282</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3079013576.626337</v>
+        <v>3931651078.608568</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09786529239452828</v>
+        <v>0.1337157651858424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04805617432386777</v>
+        <v>0.05291598233430473</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>41</v>
+      </c>
+      <c r="J93" t="n">
+        <v>89</v>
+      </c>
+      <c r="K93" t="n">
+        <v>135.9868404476545</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2076392416.041086</v>
+        <v>1921601377.458796</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1646309999328156</v>
+        <v>0.136333623889205</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03176930121039054</v>
+        <v>0.02917524469523003</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2085468653.311992</v>
+        <v>2132764890.828068</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1174432867338079</v>
+        <v>0.1235951045852848</v>
       </c>
       <c r="G95" t="n">
-        <v>0.037825458836971</v>
+        <v>0.04409089062782057</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2117761777.476817</v>
+        <v>1835776976.720597</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1208351958040337</v>
+        <v>0.09569376573565705</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04221932036871857</v>
+        <v>0.03986290407841059</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5014204820.021222</v>
+        <v>4565541974.465556</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1584197790273754</v>
+        <v>0.1461944731612443</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02661559959399682</v>
+        <v>0.02910640822858411</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>43</v>
+      </c>
+      <c r="J97" t="n">
+        <v>89</v>
+      </c>
+      <c r="K97" t="n">
+        <v>167.896422351829</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3373409976.223418</v>
+        <v>3058038357.189326</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09402079538984792</v>
+        <v>0.1137104322771183</v>
       </c>
       <c r="G98" t="n">
-        <v>0.029672650918557</v>
+        <v>0.02509876775560227</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>19</v>
+      </c>
+      <c r="J98" t="n">
+        <v>86</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3304693534.910847</v>
+        <v>2840793408.924742</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09250679463557032</v>
+        <v>0.135346375929274</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03329336255022165</v>
+        <v>0.03056036376466827</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4749541180.126471</v>
+        <v>2966954151.497439</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1474792331835715</v>
+        <v>0.1219982512223707</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02624847113933928</v>
+        <v>0.02102743626140197</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>36</v>
+      </c>
+      <c r="J100" t="n">
+        <v>88</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2729561736.714357</v>
+        <v>3484495874.895782</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1631756862790591</v>
+        <v>0.1488289467831257</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05807263130969068</v>
+        <v>0.0387982571573046</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
